--- a/خطة تنفيذ القالب الجديد.xlsx
+++ b/خطة تنفيذ القالب الجديد.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B53231C-6124-4023-87DC-054542F6F4F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4867902-5FFD-4220-8408-BAA47E09A0F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,9 +73,6 @@
     <t>New Github repository</t>
   </si>
   <si>
-    <t>https://github.com/mussab87/TemplateV4.git</t>
-  </si>
-  <si>
     <t>Code sync and pushing</t>
   </si>
   <si>
@@ -209,6 +206,9 @@
   </si>
   <si>
     <t>Long Term Support </t>
+  </si>
+  <si>
+    <t>https://github.com/mussab87/Template_V2New</t>
   </si>
 </sst>
 </file>
@@ -252,14 +252,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="13.5"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="1"/>
@@ -279,6 +271,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="13"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -475,7 +475,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -484,28 +484,25 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -517,19 +514,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -541,23 +538,26 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -867,7 +867,7 @@
   <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -905,13 +905,13 @@
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="9">
         <v>1</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="15" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="6" t="s">
@@ -922,13 +922,13 @@
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="9">
         <v>3</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="15" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="6" t="s">
@@ -939,13 +939,13 @@
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4" s="27">
         <v>3</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="15" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="6" t="s">
@@ -956,60 +956,60 @@
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="16" t="s">
+      <c r="C5" s="28"/>
+      <c r="D5" s="15" t="s">
         <v>5</v>
       </c>
       <c r="E5" s="6"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
     </row>
     <row r="6" spans="1:11" ht="18.75">
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="16" t="s">
+      <c r="C6" s="28"/>
+      <c r="D6" s="15" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="6"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
     </row>
     <row r="7" spans="1:11" ht="18.75">
       <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>15</v>
+      <c r="C7" s="28"/>
+      <c r="D7" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="18.75">
       <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="16" t="s">
+      <c r="B8" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="15" t="s">
         <v>5</v>
       </c>
       <c r="E8" s="6"/>
@@ -1018,72 +1018,72 @@
       <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="10">
+        <v>3</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>17</v>
-      </c>
-      <c r="C9" s="11">
-        <v>3</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="18.75">
       <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="28">
+      <c r="B10" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="27">
         <v>10</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="16" t="s">
         <v>5</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="H10" s="22" t="s">
+      <c r="I10" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="I10" s="22" t="s">
+      <c r="J10" s="22" t="s">
         <v>56</v>
-      </c>
-      <c r="J10" s="23" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="19.5" thickBot="1">
       <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="17" t="s">
+      <c r="B11" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="28"/>
+      <c r="D11" s="16" t="s">
         <v>5</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="H11" s="25" t="s">
+      <c r="I11" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="I11" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="J11" s="26">
+      <c r="J11" s="25">
         <v>46306</v>
       </c>
     </row>
@@ -1091,11 +1091,11 @@
       <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="17" t="s">
+      <c r="B12" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="28"/>
+      <c r="D12" s="16" t="s">
         <v>5</v>
       </c>
       <c r="E12" s="6"/>
@@ -1104,90 +1104,90 @@
       <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="28"/>
+      <c r="D13" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="18.75">
       <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="28"/>
+      <c r="D14" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="18.75">
       <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="17" t="s">
+      <c r="B15" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="29"/>
+      <c r="D15" s="16" t="s">
         <v>5</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="18.75">
       <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="28">
+      <c r="B16" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="27">
         <v>3</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="16" t="s">
         <v>5</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="18.75">
       <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="29"/>
+      <c r="D17" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="18.75">
       <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="28">
+      <c r="B18" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="27">
         <v>2</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="16" t="s">
         <v>5</v>
       </c>
       <c r="E18" s="6"/>
@@ -1196,95 +1196,95 @@
       <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B19" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="17" t="s">
+      <c r="B19" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="29"/>
+      <c r="D19" s="16" t="s">
         <v>5</v>
       </c>
       <c r="E19" s="6"/>
     </row>
     <row r="20" spans="1:5" ht="18.75">
-      <c r="A20" s="7">
+      <c r="A20" s="12">
         <v>19</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="18">
+        <v>10</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="C20" s="12">
-        <v>10</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="18.75">
       <c r="A21" s="7">
         <v>20</v>
       </c>
-      <c r="B21" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="19">
+      <c r="B21" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="18">
         <v>2</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="16" t="s">
         <v>5</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="18.75">
       <c r="A22" s="7">
         <v>21</v>
       </c>
-      <c r="B22" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="19">
+      <c r="B22" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="18">
         <v>4</v>
       </c>
-      <c r="D22" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>41</v>
+      <c r="D22" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="18.75">
       <c r="A23" s="7">
         <v>22</v>
       </c>
-      <c r="B23" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="12">
+      <c r="B23" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="11">
         <v>2</v>
       </c>
-      <c r="D23" s="18" t="s">
-        <v>20</v>
+      <c r="D23" s="17" t="s">
+        <v>19</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="18.75">
       <c r="A24" s="7">
         <v>23</v>
       </c>
-      <c r="B24" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="12">
+      <c r="B24" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="11">
         <v>1</v>
       </c>
-      <c r="D24" s="18" t="s">
-        <v>20</v>
+      <c r="D24" s="17" t="s">
+        <v>19</v>
       </c>
       <c r="E24" s="3"/>
     </row>
@@ -1292,48 +1292,48 @@
       <c r="A25" s="7">
         <v>24</v>
       </c>
-      <c r="B25" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="12">
+      <c r="B25" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="11">
         <v>4</v>
       </c>
-      <c r="D25" s="18" t="s">
-        <v>20</v>
+      <c r="D25" s="17" t="s">
+        <v>19</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="18.75">
       <c r="A26" s="7">
         <v>25</v>
       </c>
-      <c r="B26" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="12">
+      <c r="B26" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="11">
         <v>20</v>
       </c>
-      <c r="D26" s="18" t="s">
-        <v>20</v>
+      <c r="D26" s="17" t="s">
+        <v>19</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="18.75">
       <c r="A27" s="7">
         <v>26</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="11">
+        <v>14</v>
+      </c>
+      <c r="D27" s="17" t="s">
         <v>19</v>
-      </c>
-      <c r="C27" s="12">
-        <v>14</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>20</v>
       </c>
       <c r="E27" s="3"/>
     </row>
@@ -1341,14 +1341,14 @@
       <c r="A28" s="7">
         <v>27</v>
       </c>
-      <c r="B28" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" s="31">
+      <c r="B28" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="30">
         <v>12</v>
       </c>
-      <c r="D28" s="18" t="s">
-        <v>20</v>
+      <c r="D28" s="17" t="s">
+        <v>19</v>
       </c>
       <c r="E28" s="3"/>
     </row>
@@ -1356,20 +1356,20 @@
       <c r="A29" s="7">
         <v>28</v>
       </c>
-      <c r="B29" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" s="32"/>
-      <c r="D29" s="18" t="s">
-        <v>20</v>
+      <c r="B29" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="31"/>
+      <c r="D29" s="17" t="s">
+        <v>19</v>
       </c>
       <c r="E29" s="3"/>
     </row>
     <row r="30" spans="1:5" ht="23.25">
-      <c r="A30" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="B30" s="27"/>
+      <c r="A30" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="26"/>
       <c r="C30" s="5">
         <f>SUM(C4:C28)</f>
         <v>90</v>
@@ -1474,5 +1474,6 @@
     <hyperlink ref="E7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>